--- a/output.xlsx
+++ b/output.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -415,7 +415,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.8993153791943659</v>
+        <v>0.8993711862397418</v>
       </c>
     </row>
     <row r="3">
@@ -440,18 +440,18 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.877987524712427</v>
+        <v>0.8779874080227483</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/fuce.202200205</t>
+          <t>https://doi.org/10.1021/acsami.3c07868</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Characterization of thin metalsupported solid oxide fuel cells fabricated through atmospheric Plasma spraying</t>
+          <t>Electrochemically Assisted Construction of a La&lt;sub&gt;2&lt;/sub&gt;NiO&lt;sub&gt;4+&lt;/sub&gt;@Pt CoreShell Structure for Enhancing the Performance and Durability of La&lt;sub&gt;2&lt;/sub&gt;NiO&lt;sub&gt;4+&lt;/sub&gt; Cathodes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.8756883350309265</v>
+        <v>0.8650060105452669</v>
       </c>
     </row>
     <row r="5">
@@ -490,32 +490,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.8632868044149935</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.21203/rs.3.rs-3226045/v1</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Calcium oxide as synergistic catalyst for oxygen reduction reaction on strontium-doped lanthanum ferrite for SOFC</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>0.8459486792964531</v>
+        <v>0.8634275625190693</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,12 +396,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s40843-023-2519-9</t>
+          <t>https://doi.org/10.1002/ep.14253</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TiO2-induced electronic change in traditional La0.5Sr0.5MnO3 cathode allows high performance of proton-conducting solid oxide fuel cells</t>
+          <t>Distribution of &lt;scp&gt;SOFC&lt;/scp&gt; thermal stress via helium gas (He) based cooling system</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -411,22 +411,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.8779006431918112</v>
+        <v>0.8568076422351408</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21203/rs.3.rs-3226045/v1</t>
+          <t>https://doi.org/10.1016/j.fuel.2023.128426</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Calcium oxide as synergistic catalyst for oxygen reduction reaction on strontium-doped lanthanum ferrite for SOFC</t>
+          <t>Comparative study of fuel types on solid oxide fuel cell  gas turbine hybrid system for electric propulsion aircraft</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -436,11 +436,86 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.8459054486545459</v>
+        <v>0.8488790707746119</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.ssi.2023.116233</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>A new (La0.2Nd0.2Gd0.2Sr0.2Ba0.2)Co0.2Fe0.8O3- high-entropy oxide cathode for intermediate temperature solid oxide fuel cell</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.847518232125528</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.ijhydene.2023.04.170</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Large area solid oxide fuel cells with room temperature sputtered barrier layers: Role of the layer thickness and uniformity in the enhancement of the electrochemical performances and durability</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8395734544494046</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.jpcs.2023.111428</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Reformed dielectric features in single phase orthorhombic nickel vanadate complex oxides and the significance of the lattice dynamics in the optoelectrical features</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7956231177309411</v>
       </c>
     </row>
   </sheetData>
